--- a/Maquettes/_SPE_Clean.xlsx
+++ b/Maquettes/_SPE_Clean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="28900" windowHeight="23540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="37140" windowHeight="23540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GEEL" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="375">
   <si>
     <t>Semestre 1</t>
   </si>
@@ -159,9 +159,6 @@
     <t>BIOL-23302C</t>
   </si>
   <si>
-    <t>Enjeux environnement et sociétaux</t>
-  </si>
-  <si>
     <t>H. Hartmann</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>UE-23303C</t>
   </si>
   <si>
-    <t>Problématique littorales en écologie</t>
-  </si>
-  <si>
     <t>Préparation du projet professionnel</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>H. Thomas</t>
   </si>
   <si>
-    <t>PR + CC</t>
-  </si>
-  <si>
     <t>UE-21401C</t>
   </si>
   <si>
@@ -645,9 +636,6 @@
     <t xml:space="preserve">ENV-20115C                     </t>
   </si>
   <si>
-    <t xml:space="preserve">ENV-20101C                     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Business and sustainable development             </t>
   </si>
   <si>
@@ -957,9 +945,6 @@
     <t>UE-20104C</t>
   </si>
   <si>
-    <t>Changer cet EC d'UE</t>
-  </si>
-  <si>
     <t>UE-20105C</t>
   </si>
   <si>
@@ -1135,6 +1120,33 @@
   </si>
   <si>
     <t>0,5M + 0,5O</t>
+  </si>
+  <si>
+    <t>0,5*PR + 0,5*CC</t>
+  </si>
+  <si>
+    <t>Problématiques littorales en écologie</t>
+  </si>
+  <si>
+    <t>Stage (GEEL-pro)</t>
+  </si>
+  <si>
+    <t>Stage (GEEL-recherche)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENV-20101A              </t>
+  </si>
+  <si>
+    <t>Stage (geosciences)</t>
+  </si>
+  <si>
+    <t>Enjeux environnementaux et sociétaux</t>
+  </si>
+  <si>
+    <t>ENV-23306B</t>
+  </si>
+  <si>
+    <t>SIG pour le littoral</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1420,8 +1432,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1591,11 +1631,17 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="209">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1686,6 +1732,20 @@
     <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1776,6 +1836,20 @@
     <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2108,7 +2182,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="71" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2178,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2205,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2228,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2259,15 +2333,15 @@
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10">
         <v>20</v>
@@ -2289,15 +2363,15 @@
         <v>15</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>20</v>
@@ -2316,10 +2390,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C8" s="10">
         <v>9</v>
@@ -2341,18 +2415,18 @@
         <v>15</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="10">
         <v>12</v>
@@ -2376,18 +2450,18 @@
         <v>15</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C10" s="10">
         <v>18</v>
@@ -2412,12 +2486,12 @@
         <v>16</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>25</v>
@@ -2443,7 +2517,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2451,7 +2525,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C12" s="10">
         <v>18</v>
@@ -2462,8 +2536,8 @@
       <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>292</v>
+      <c r="F12" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="G12" s="12">
         <v>3</v>
@@ -2478,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2508,18 +2582,18 @@
         <v>24</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10">
         <v>30</v>
@@ -2543,23 +2617,23 @@
         <v>24</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="10">
-        <v>15</v>
-      </c>
-      <c r="D15" s="10">
+        <v>59</v>
+      </c>
+      <c r="C15" s="39">
+        <v>15</v>
+      </c>
+      <c r="D15" s="39">
         <v>15</v>
       </c>
       <c r="E15" s="10"/>
@@ -2579,15 +2653,15 @@
         <v>16</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2603,10 +2677,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="10">
         <v>24</v>
@@ -2618,7 +2692,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="12">
         <v>4</v>
@@ -2630,18 +2704,18 @@
         <v>15</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C18" s="10">
         <v>30</v>
@@ -2653,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="12">
         <v>4</v>
@@ -2665,18 +2739,18 @@
         <v>15</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10">
         <v>30</v>
@@ -2696,10 +2770,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2749,12 +2823,12 @@
         <v>10</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
@@ -2799,12 +2873,12 @@
         <v>16</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>33</v>
@@ -2827,10 +2901,10 @@
         <v>15</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2838,7 +2912,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19">
@@ -2847,7 +2921,7 @@
       <c r="E25" s="19">
         <v>6</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="12">
@@ -2868,7 +2942,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>37</v>
@@ -2887,10 +2961,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="19">
         <v>15</v>
@@ -2900,7 +2974,7 @@
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="12">
         <v>3</v>
@@ -2911,24 +2985,24 @@
       <c r="I27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="19">
         <v>20</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="10">
         <v>20</v>
       </c>
       <c r="E28" s="19"/>
@@ -2948,15 +3022,15 @@
         <v>16</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -2972,10 +3046,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="19">
         <v>20</v>
@@ -2985,7 +3059,7 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="12">
         <v>2</v>
@@ -2997,18 +3071,18 @@
         <v>15</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="19">
         <v>33</v>
@@ -3020,7 +3094,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="12">
         <v>5</v>
@@ -3032,28 +3106,28 @@
         <v>15</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="19">
         <v>6</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G32" s="12">
         <v>2</v>
@@ -3068,15 +3142,15 @@
         <v>16</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C33" s="19">
         <v>36</v>
@@ -3086,7 +3160,7 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="12">
         <v>6</v>
@@ -3098,18 +3172,18 @@
         <v>15</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -3125,16 +3199,16 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="33" t="s">
-        <v>302</v>
+      <c r="F35" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="G35" s="12">
         <v>3</v>
@@ -3199,12 +3273,12 @@
         <v>10</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>12</v>
@@ -3223,7 +3297,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>42</v>
@@ -3232,10 +3306,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="28">
+      <c r="E39" s="12">
         <v>6</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="12">
@@ -3259,7 +3333,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="C40" s="12">
         <v>24</v>
@@ -3267,7 +3341,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="12">
         <v>2</v>
@@ -3279,15 +3353,15 @@
         <v>15</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>18</v>
@@ -3306,10 +3380,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12">
@@ -3329,33 +3403,33 @@
         <v>15</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="A43" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -3371,10 +3445,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="12">
         <v>10</v>
@@ -3386,7 +3460,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="12">
         <v>2</v>
@@ -3398,18 +3472,18 @@
         <v>15</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12">
@@ -3437,10 +3511,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="C47" s="12">
         <v>10</v>
@@ -3450,7 +3524,7 @@
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" s="12">
         <v>2</v>
@@ -3465,15 +3539,15 @@
         <v>16</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -3489,10 +3563,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="12">
         <v>20</v>
@@ -3504,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G49" s="12">
         <v>6</v>
@@ -3516,18 +3590,18 @@
         <v>24</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="12">
         <v>20</v>
@@ -3539,7 +3613,7 @@
         <v>40</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G50" s="12">
         <v>6</v>
@@ -3551,18 +3625,18 @@
         <v>24</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -3578,10 +3652,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="12">
         <v>30</v>
@@ -3591,7 +3665,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52" s="12">
         <v>4</v>
@@ -3603,18 +3677,18 @@
         <v>15</v>
       </c>
       <c r="J52" s="28" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -3630,10 +3704,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="12">
         <v>20</v>
@@ -3643,7 +3717,7 @@
         <v>16</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="12">
         <v>3</v>
@@ -3655,18 +3729,18 @@
         <v>15</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -3682,10 +3756,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="C56" s="12">
         <v>32</v>
@@ -3712,30 +3786,30 @@
         <v>16</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
+      <c r="A57" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -3751,10 +3825,10 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="12">
         <v>10</v>
@@ -3766,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="12">
         <v>2</v>
@@ -3778,18 +3852,18 @@
         <v>15</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12">
@@ -3817,10 +3891,10 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="C61" s="12">
         <v>14</v>
@@ -3830,7 +3904,7 @@
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" s="12">
         <v>2</v>
@@ -3842,18 +3916,18 @@
         <v>15</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -3869,10 +3943,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="12">
         <v>30</v>
@@ -3880,7 +3954,7 @@
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G63" s="12">
         <v>6</v>
@@ -3892,18 +3966,18 @@
         <v>24</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="12">
         <v>20</v>
@@ -3915,7 +3989,7 @@
         <v>40</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G64" s="12">
         <v>6</v>
@@ -3927,18 +4001,18 @@
         <v>24</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -3954,10 +4028,10 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="12">
         <v>26</v>
@@ -3965,7 +4039,7 @@
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G66" s="12">
         <v>6</v>
@@ -3977,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>15</v>
@@ -3985,10 +4059,10 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -4004,10 +4078,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="C68" s="12">
         <v>54</v>
@@ -4015,7 +4089,7 @@
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G68" s="12">
         <v>6</v>
@@ -4027,15 +4101,15 @@
         <v>15</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="25"/>
@@ -4080,30 +4154,30 @@
         <v>10</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
+      <c r="A71" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>51</v>
+        <v>368</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -4119,16 +4193,16 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G73" s="12">
         <v>30</v>
@@ -4143,30 +4217,30 @@
         <v>16</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
+      <c r="A74" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -4182,16 +4256,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G76" s="12">
         <v>30</v>
@@ -4206,7 +4280,7 @@
         <v>16</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4228,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="71" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4254,7 +4328,7 @@
     <col min="26" max="16384" width="71" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4343,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4301,10 +4375,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -4323,12 +4397,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -4351,10 +4425,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -4382,15 +4456,15 @@
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10">
         <v>20</v>
@@ -4412,15 +4486,15 @@
         <v>15</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>37</v>
@@ -4437,12 +4511,12 @@
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C8" s="10">
         <v>24</v>
@@ -4464,18 +4538,18 @@
         <v>15</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C9" s="10">
         <v>9</v>
@@ -4497,18 +4571,18 @@
         <v>15</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C10" s="10">
         <v>18</v>
@@ -4533,15 +4607,15 @@
         <v>16</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -4555,12 +4629,12 @@
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="15" t="s">
-        <v>210</v>
+    <row r="12" spans="1:11">
+      <c r="A12" s="63" t="s">
+        <v>206</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C12" s="39">
         <v>12</v>
@@ -4570,7 +4644,7 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="28">
         <v>3</v>
@@ -4585,18 +4659,15 @@
         <v>16</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="10">
         <v>18</v>
@@ -4608,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G13" s="12">
         <v>4</v>
@@ -4623,15 +4694,15 @@
         <v>16</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="C14" s="10">
         <v>9</v>
@@ -4643,7 +4714,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G14" s="12">
         <v>5</v>
@@ -4658,15 +4729,15 @@
         <v>16</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C15" s="10">
         <v>12</v>
@@ -4678,7 +4749,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G15" s="12">
         <v>3</v>
@@ -4693,10 +4764,10 @@
         <v>16</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -4711,7 +4782,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -4743,12 +4814,12 @@
         <v>10</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
@@ -4765,7 +4836,7 @@
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
@@ -4793,12 +4864,12 @@
         <v>16</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>33</v>
@@ -4821,18 +4892,18 @@
         <v>15</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19">
@@ -4841,7 +4912,7 @@
       <c r="E21" s="19">
         <v>6</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="12">
@@ -4860,12 +4931,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -4879,18 +4950,18 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:11">
       <c r="A23" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>315</v>
+        <v>309</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G23" s="12">
         <v>3</v>
@@ -4901,16 +4972,16 @@
       <c r="I23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="J23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>37</v>
@@ -4927,24 +4998,24 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:11">
       <c r="A25" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="19">
         <v>20</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="10">
         <v>20</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="12">
         <v>3</v>
       </c>
       <c r="H25" s="12">
@@ -4957,15 +5028,15 @@
         <v>16</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -4979,12 +5050,12 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C27" s="39">
         <v>15</v>
@@ -4996,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G27" s="28">
         <v>4</v>
@@ -5011,18 +5082,15 @@
         <v>16</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C28" s="19">
         <v>12</v>
@@ -5030,13 +5098,13 @@
       <c r="D28" s="19">
         <v>12</v>
       </c>
-      <c r="E28" s="19">
-        <v>6</v>
+      <c r="E28" s="10">
+        <v>10</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="28">
+        <v>217</v>
+      </c>
+      <c r="G28" s="12">
         <v>3</v>
       </c>
       <c r="H28" s="12">
@@ -5049,15 +5117,15 @@
         <v>16</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C29" s="19">
         <v>15</v>
@@ -5069,9 +5137,9 @@
         <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="28">
+        <v>208</v>
+      </c>
+      <c r="G29" s="12">
         <v>3</v>
       </c>
       <c r="H29" s="12">
@@ -5084,15 +5152,15 @@
         <v>16</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C30" s="19">
         <v>9</v>
@@ -5119,43 +5187,43 @@
         <v>16</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" s="39">
+        <v>225</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="10">
         <v>21</v>
       </c>
-      <c r="D31" s="39">
-        <v>15</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="33" t="s">
-        <v>218</v>
+      <c r="D31" s="10">
+        <v>15</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="G31" s="28">
         <v>4</v>
       </c>
-      <c r="H31" s="28">
-        <v>2</v>
-      </c>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="12">
+        <v>2</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5170,7 +5238,7 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -5202,12 +5270,12 @@
         <v>10</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>12</v>
@@ -5217,16 +5285,16 @@
       <c r="E34" s="24"/>
       <c r="F34" s="7"/>
       <c r="G34" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:11">
       <c r="A35" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>42</v>
@@ -5235,10 +5303,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="28">
+      <c r="E35" s="12">
         <v>6</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="12">
@@ -5257,62 +5325,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="12">
+        <v>24</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="28">
-        <v>24</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="33" t="s">
+      <c r="G36" s="12">
+        <v>2</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="28">
-        <v>2</v>
-      </c>
-      <c r="H36" s="28">
-        <v>1</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="K36" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="7"/>
       <c r="G37" s="24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:11">
       <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12">
@@ -5332,24 +5400,24 @@
         <v>15</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="24">
+      <c r="G39" s="28">
         <v>12</v>
       </c>
       <c r="H39" s="24"/>
@@ -5357,12 +5425,12 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="26" t="s">
-        <v>231</v>
+    <row r="40" spans="1:11">
+      <c r="A40" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C40" s="28">
         <v>12</v>
@@ -5371,8 +5439,8 @@
         <v>18</v>
       </c>
       <c r="E40" s="28"/>
-      <c r="F40" s="33" t="s">
-        <v>233</v>
+      <c r="F40" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="G40" s="28">
         <v>3</v>
@@ -5387,18 +5455,15 @@
         <v>16</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C41" s="12">
         <v>14</v>
@@ -5408,30 +5473,30 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="12">
-        <v>3</v>
-      </c>
-      <c r="H41" s="12">
+        <v>211</v>
+      </c>
+      <c r="G41" s="28">
+        <v>3</v>
+      </c>
+      <c r="H41" s="28">
         <v>2</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C42" s="12">
         <v>10</v>
@@ -5443,30 +5508,30 @@
         <v>15</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" s="12">
-        <v>3</v>
-      </c>
-      <c r="H42" s="12">
+        <v>233</v>
+      </c>
+      <c r="G42" s="28">
+        <v>3</v>
+      </c>
+      <c r="H42" s="28">
         <v>2</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>96</v>
+        <v>373</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12">
@@ -5488,16 +5553,16 @@
       <c r="J43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="K43" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -5511,12 +5576,12 @@
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:11">
       <c r="A45" s="21" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C45" s="12">
         <v>25</v>
@@ -5526,12 +5591,12 @@
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G45" s="12">
         <v>6</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="28">
         <v>2</v>
       </c>
       <c r="I45" s="12" t="s">
@@ -5541,15 +5606,15 @@
         <v>16</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -5563,12 +5628,12 @@
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:11">
       <c r="A47" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C47" s="12">
         <v>24</v>
@@ -5580,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G47" s="12">
         <v>6</v>
@@ -5595,12 +5660,12 @@
         <v>16</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="25"/>
@@ -5645,15 +5710,15 @@
         <v>10</v>
       </c>
       <c r="K49" s="43" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -5669,16 +5734,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G51" s="12">
         <v>30</v>
@@ -5711,14 +5776,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="71" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="2" customWidth="1"/>
     <col min="3" max="5" width="3.5" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="34" bestFit="1" customWidth="1"/>
@@ -5727,13 +5792,8 @@
     <col min="10" max="10" width="9.1640625" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="3.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5" style="2" customWidth="1"/>
-    <col min="23" max="25" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="71" style="2"/>
+    <col min="13" max="14" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="71" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5783,7 +5843,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5810,7 +5870,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5833,7 +5893,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5864,15 +5924,15 @@
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10">
         <v>20</v>
@@ -5894,15 +5954,15 @@
         <v>15</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>20</v>
@@ -5920,11 +5980,11 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="29" t="s">
-        <v>289</v>
+      <c r="A8" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C8" s="10">
         <v>9</v>
@@ -5946,18 +6006,18 @@
         <v>15</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="10">
         <v>12</v>
@@ -5967,7 +6027,7 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="12">
         <v>3</v>
@@ -5979,18 +6039,18 @@
         <v>15</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C10" s="10">
         <v>24</v>
@@ -6012,10 +6072,10 @@
         <v>15</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6023,7 +6083,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C11" s="10">
         <v>18</v>
@@ -6035,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G11" s="12">
         <v>3</v>
@@ -6050,12 +6110,12 @@
         <v>16</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -6081,7 +6141,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6111,18 +6171,18 @@
         <v>24</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6138,10 +6198,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C15" s="10">
         <v>15</v>
@@ -6149,7 +6209,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="12">
         <v>2</v>
@@ -6164,15 +6224,15 @@
         <v>16</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="10">
         <v>15</v>
@@ -6180,7 +6240,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G16" s="12">
         <v>2</v>
@@ -6195,15 +6255,15 @@
         <v>16</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6219,10 +6279,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="10">
         <v>14</v>
@@ -6247,15 +6307,15 @@
         <v>16</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C19" s="10">
         <v>14</v>
@@ -6280,15 +6340,15 @@
         <v>16</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6304,10 +6364,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="10">
         <v>20</v>
@@ -6315,7 +6375,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G21" s="12">
         <v>2</v>
@@ -6327,18 +6387,18 @@
         <v>15</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C22" s="10">
         <v>20</v>
@@ -6346,7 +6406,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="12">
         <v>2</v>
@@ -6361,7 +6421,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6411,12 +6471,12 @@
         <v>10</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>12</v>
@@ -6461,12 +6521,12 @@
         <v>16</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>33</v>
@@ -6489,10 +6549,10 @@
         <v>15</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6500,7 +6560,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19">
@@ -6530,7 +6590,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>37</v>
@@ -6549,10 +6609,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" s="19">
         <v>27</v>
@@ -6575,15 +6635,15 @@
         <v>16</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" s="19">
         <v>3</v>
@@ -6595,7 +6655,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="12">
         <v>3</v>
@@ -6610,15 +6670,15 @@
         <v>16</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -6634,10 +6694,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" s="19">
         <v>8</v>
@@ -6662,15 +6722,15 @@
         <v>16</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C34" s="19">
         <v>6</v>
@@ -6695,15 +6755,15 @@
         <v>16</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
@@ -6726,15 +6786,15 @@
         <v>16</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C36" s="19">
         <v>4</v>
@@ -6759,15 +6819,15 @@
         <v>16</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -6783,10 +6843,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" s="12">
         <v>20</v>
@@ -6809,15 +6869,15 @@
         <v>16</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C39" s="12">
         <v>20</v>
@@ -6840,15 +6900,15 @@
         <v>16</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -6864,10 +6924,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -6885,16 +6945,16 @@
         <v>24</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -6912,7 +6972,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="12"/>
     </row>
@@ -6963,12 +7023,12 @@
         <v>10</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>12</v>
@@ -6987,7 +7047,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>42</v>
@@ -7023,7 +7083,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="C47" s="12">
         <v>24</v>
@@ -7031,7 +7091,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" s="12">
         <v>2</v>
@@ -7043,15 +7103,15 @@
         <v>15</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>18</v>
@@ -7070,10 +7130,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12">
@@ -7096,15 +7156,15 @@
         <v>16</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -7120,10 +7180,10 @@
     </row>
     <row r="51" spans="1:11" ht="13" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C51" s="12">
         <v>20</v>
@@ -7146,15 +7206,15 @@
         <v>16</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C52" s="12">
         <v>20</v>
@@ -7177,15 +7237,15 @@
         <v>16</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -7201,10 +7261,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C54" s="12">
         <v>20</v>
@@ -7212,7 +7272,7 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G54" s="12">
         <v>3</v>
@@ -7224,18 +7284,18 @@
         <v>15</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C55" s="12">
         <v>20</v>
@@ -7243,7 +7303,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G55" s="12">
         <v>3</v>
@@ -7258,15 +7318,15 @@
         <v>16</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -7282,10 +7342,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C57" s="12">
         <v>20</v>
@@ -7293,7 +7353,7 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G57" s="12">
         <v>3</v>
@@ -7308,15 +7368,15 @@
         <v>16</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C58" s="12">
         <v>20</v>
@@ -7324,7 +7384,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="11" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="G58" s="12">
         <v>3</v>
@@ -7339,15 +7399,15 @@
         <v>16</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -7363,10 +7423,10 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C60" s="12">
         <v>20</v>
@@ -7389,15 +7449,15 @@
         <v>16</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C61" s="12">
         <v>20</v>
@@ -7420,12 +7480,12 @@
         <v>16</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="25"/>
@@ -7470,15 +7530,15 @@
         <v>10</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -7494,10 +7554,10 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -7515,10 +7575,10 @@
         <v>15</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7536,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7603,7 +7663,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="53" customFormat="1" ht="12">
@@ -7630,7 +7690,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7653,7 +7713,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="53" customFormat="1" ht="12">
@@ -7684,15 +7744,15 @@
         <v>16</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="53" customFormat="1" ht="12">
       <c r="A6" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10">
         <v>20</v>
@@ -7714,18 +7774,18 @@
         <v>15</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -7743,10 +7803,10 @@
     </row>
     <row r="8" spans="1:11" s="53" customFormat="1" ht="12">
       <c r="A8" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C8" s="10">
         <v>24</v>
@@ -7768,10 +7828,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="53" customFormat="1" ht="12">
@@ -7801,10 +7861,10 @@
         <v>24</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="53" customFormat="1" ht="12" customHeight="1">
@@ -7812,7 +7872,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C10" s="10">
         <v>18</v>
@@ -7824,7 +7884,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G10" s="17">
         <v>3</v>
@@ -7839,15 +7899,15 @@
         <v>16</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1">
       <c r="A11" s="58" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
@@ -7865,10 +7925,10 @@
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1">
       <c r="A12" s="59" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C12" s="10">
         <v>15</v>
@@ -7878,7 +7938,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="37" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G12" s="17">
         <v>3</v>
@@ -7893,15 +7953,15 @@
         <v>16</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C13" s="10">
         <v>15</v>
@@ -7911,7 +7971,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G13" s="17">
         <v>3</v>
@@ -7926,15 +7986,15 @@
         <v>16</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1">
       <c r="A14" s="59" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C14" s="10">
         <v>15</v>
@@ -7944,7 +8004,7 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="37" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G14" s="17">
         <v>3</v>
@@ -7959,15 +8019,15 @@
         <v>16</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12" customHeight="1">
       <c r="A15" s="58" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -7985,10 +8045,10 @@
     </row>
     <row r="16" spans="1:11" ht="12" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
@@ -7996,7 +8056,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="37" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G16" s="17">
         <v>3</v>
@@ -8011,15 +8071,15 @@
         <v>16</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C17" s="10">
         <v>12</v>
@@ -8044,15 +8104,15 @@
         <v>16</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C18" s="10">
         <v>15</v>
@@ -8062,7 +8122,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="37" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G18" s="17">
         <v>3</v>
@@ -8077,15 +8137,15 @@
         <v>16</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C19" s="10">
         <v>15</v>
@@ -8095,7 +8155,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G19" s="17">
         <v>3</v>
@@ -8110,7 +8170,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12" customHeight="1">
@@ -8160,12 +8220,12 @@
         <v>10</v>
       </c>
       <c r="K21" s="49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12" customHeight="1">
       <c r="A22" s="62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>12</v>
@@ -8210,12 +8270,12 @@
         <v>16</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="12">
       <c r="A24" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>33</v>
@@ -8236,10 +8296,10 @@
         <v>15</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="12">
@@ -8247,7 +8307,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19">
@@ -8275,7 +8335,7 @@
     </row>
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>37</v>
@@ -8296,10 +8356,10 @@
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="12">
       <c r="A27" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="19">
         <v>15</v>
@@ -8309,7 +8369,7 @@
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="12">
         <v>3</v>
@@ -8324,15 +8384,15 @@
         <v>16</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="12">
       <c r="A28" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="19">
         <v>20</v>
@@ -8357,15 +8417,15 @@
         <v>16</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="12">
       <c r="A29" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="19">
         <v>27</v>
@@ -8388,15 +8448,15 @@
         <v>16</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
@@ -8414,10 +8474,10 @@
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C31" s="17">
         <v>12</v>
@@ -8427,7 +8487,7 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="37" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G31" s="17">
         <v>3</v>
@@ -8442,15 +8502,15 @@
         <v>16</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12" customHeight="1">
       <c r="A32" s="59" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C32" s="10">
         <v>12</v>
@@ -8460,7 +8520,7 @@
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="37" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G32" s="17">
         <v>3</v>
@@ -8475,15 +8535,15 @@
         <v>16</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1">
       <c r="A33" s="62" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
@@ -8501,16 +8561,16 @@
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="37" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G34" s="17">
         <v>9</v>
@@ -8522,22 +8582,22 @@
         <v>24</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="37" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G35" s="17">
         <v>9</v>
@@ -8549,7 +8609,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" s="17"/>
     </row>
@@ -8600,12 +8660,12 @@
         <v>10</v>
       </c>
       <c r="K37" s="49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="12" customHeight="1">
       <c r="A38" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>12</v>
@@ -8626,7 +8686,7 @@
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="12">
       <c r="A39" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>42</v>
@@ -8662,7 +8722,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="C40" s="12">
         <v>24</v>
@@ -8670,7 +8730,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="12">
         <v>2</v>
@@ -8682,15 +8742,15 @@
         <v>15</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="12" customHeight="1">
       <c r="A41" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>18</v>
@@ -8711,10 +8771,10 @@
     </row>
     <row r="42" spans="1:11" ht="12" customHeight="1">
       <c r="A42" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17">
@@ -8737,15 +8797,15 @@
         <v>16</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12" customHeight="1">
       <c r="A43" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
@@ -8763,10 +8823,10 @@
     </row>
     <row r="44" spans="1:11" ht="12" customHeight="1">
       <c r="A44" s="60" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C44" s="17">
         <v>12</v>
@@ -8776,7 +8836,7 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="37" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G44" s="17">
         <v>2</v>
@@ -8791,15 +8851,15 @@
         <v>16</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="12" customHeight="1">
       <c r="A45" s="60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C45" s="17">
         <v>12</v>
@@ -8809,7 +8869,7 @@
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="37" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G45" s="17">
         <v>2</v>
@@ -8824,15 +8884,15 @@
         <v>16</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="12" customHeight="1">
       <c r="A46" s="60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C46" s="17">
         <v>12</v>
@@ -8842,7 +8902,7 @@
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="37" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G46" s="17">
         <v>2</v>
@@ -8857,15 +8917,15 @@
         <v>16</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12" customHeight="1">
       <c r="A47" s="55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
@@ -8883,10 +8943,10 @@
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1">
       <c r="A48" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C48" s="17">
         <v>24</v>
@@ -8896,7 +8956,7 @@
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="37" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G48" s="17">
         <v>4</v>
@@ -8911,15 +8971,15 @@
         <v>16</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12" customHeight="1">
       <c r="A49" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C49" s="17">
         <v>15</v>
@@ -8929,7 +8989,7 @@
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="37" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G49" s="17">
         <v>2</v>
@@ -8944,15 +9004,15 @@
         <v>16</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1">
       <c r="A50" s="55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
@@ -8970,10 +9030,10 @@
     </row>
     <row r="51" spans="1:11" ht="12" customHeight="1">
       <c r="A51" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C51" s="17">
         <v>15</v>
@@ -8983,7 +9043,7 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="37" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G51" s="17">
         <v>2</v>
@@ -8998,15 +9058,15 @@
         <v>16</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1">
       <c r="A52" s="23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C52" s="17">
         <v>12</v>
@@ -9016,7 +9076,7 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="37" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G52" s="17">
         <v>2</v>
@@ -9031,15 +9091,15 @@
         <v>16</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12" customHeight="1">
       <c r="A53" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C53" s="17">
         <v>12</v>
@@ -9049,7 +9109,7 @@
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="37" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G53" s="17">
         <v>2</v>
@@ -9064,15 +9124,15 @@
         <v>16</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1">
       <c r="A54" s="55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
@@ -9090,10 +9150,10 @@
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1">
       <c r="A55" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C55" s="17">
         <v>24</v>
@@ -9103,7 +9163,7 @@
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="37" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G55" s="17">
         <v>4</v>
@@ -9118,15 +9178,15 @@
         <v>16</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12" customHeight="1">
       <c r="A56" s="23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C56" s="17">
         <v>18</v>
@@ -9136,7 +9196,7 @@
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="37" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G56" s="17">
         <v>2</v>
@@ -9151,15 +9211,15 @@
         <v>16</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12" customHeight="1">
       <c r="A57" s="55" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B57" s="55" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
@@ -9173,10 +9233,10 @@
     </row>
     <row r="58" spans="1:11" ht="12" customHeight="1">
       <c r="A58" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C58" s="17">
         <v>9</v>
@@ -9196,7 +9256,7 @@
     </row>
     <row r="59" spans="1:11" ht="12" customHeight="1">
       <c r="A59" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="46"/>
       <c r="C59" s="47"/>
@@ -9241,15 +9301,15 @@
         <v>10</v>
       </c>
       <c r="K60" s="49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12" customHeight="1">
       <c r="A61" s="55" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
@@ -9265,10 +9325,10 @@
     </row>
     <row r="62" spans="1:11" ht="12" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -9286,16 +9346,16 @@
         <v>24</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:11" ht="12" customHeight="1">
       <c r="A63" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -9313,7 +9373,7 @@
         <v>24</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K63" s="17"/>
     </row>

--- a/Maquettes/_SPE_Clean.xlsx
+++ b/Maquettes/_SPE_Clean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="37140" windowHeight="23540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="37140" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GEEL" sheetId="1" r:id="rId1"/>
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="71" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="11" t="s">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="11" t="s">
@@ -5776,7 +5776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>

--- a/Maquettes/_SPE_Clean.xlsx
+++ b/Maquettes/_SPE_Clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="37140" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GEEL" sheetId="1" r:id="rId1"/>
     <sheet name="GGL" sheetId="3" r:id="rId2"/>
     <sheet name="GAGL" sheetId="2" r:id="rId3"/>
-    <sheet name="ME" sheetId="4" r:id="rId4"/>
+    <sheet name="MANE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="374">
   <si>
     <t>Semestre 1</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>L. Checroun</t>
   </si>
   <si>
-    <t>JF. Berthevas</t>
-  </si>
-  <si>
     <t>P. Rambeaud</t>
   </si>
   <si>
@@ -1107,9 +1104,6 @@
     <t>M. Juin</t>
   </si>
   <si>
-    <t>J. Viau</t>
-  </si>
-  <si>
     <t>0,5*M + 0,5*O</t>
   </si>
   <si>
@@ -1147,13 +1141,16 @@
   </si>
   <si>
     <t>SIG pour le littoral</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1189,6 +1186,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Athelas Regular"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1250,7 +1252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1460,8 +1462,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1637,11 +1651,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="221">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1746,6 +1769,12 @@
     <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1850,6 +1879,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2181,7 +2216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -3333,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C40" s="12">
         <v>24</v>
@@ -3353,7 +3388,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>53</v>
@@ -3403,26 +3438,26 @@
         <v>15</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
@@ -3790,19 +3825,19 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="7" t="s">
@@ -4051,7 +4086,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>15</v>
@@ -4062,7 +4097,7 @@
         <v>123</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -4081,7 +4116,7 @@
         <v>301</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C68" s="12">
         <v>54</v>
@@ -4158,26 +4193,26 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -4221,26 +4256,26 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="7" t="s">
         <v>302</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -4304,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -4546,7 +4581,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>204</v>
@@ -4955,7 +4990,7 @@
         <v>309</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -5330,7 +5365,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C36" s="12">
         <v>24</v>
@@ -5350,7 +5385,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>53</v>
@@ -5400,7 +5435,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>53</v>
@@ -5528,10 +5563,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12">
@@ -5776,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="71" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7083,7 +7118,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" s="12">
         <v>24</v>
@@ -7103,7 +7138,7 @@
         <v>15</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>53</v>
@@ -7575,10 +7610,10 @@
         <v>15</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -7596,8 +7631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7794,9 +7829,7 @@
       <c r="G7" s="56">
         <v>6</v>
       </c>
-      <c r="H7" s="56">
-        <v>2</v>
-      </c>
+      <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
@@ -7916,9 +7949,7 @@
       <c r="G11" s="44">
         <v>9</v>
       </c>
-      <c r="H11" s="44">
-        <v>3</v>
-      </c>
+      <c r="H11" s="44"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
@@ -8036,9 +8067,7 @@
       <c r="G15" s="44">
         <v>9</v>
       </c>
-      <c r="H15" s="44">
-        <v>3</v>
-      </c>
+      <c r="H15" s="44"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -8237,9 +8266,7 @@
       <c r="G22" s="56">
         <v>6</v>
       </c>
-      <c r="H22" s="56">
-        <v>2</v>
-      </c>
+      <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
@@ -8262,7 +8289,9 @@
       <c r="G23" s="12">
         <v>2</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="67">
+        <v>1</v>
+      </c>
       <c r="I23" s="12" t="s">
         <v>15</v>
       </c>
@@ -8291,7 +8320,9 @@
       <c r="G24" s="12">
         <v>2</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="67">
+        <v>1</v>
+      </c>
       <c r="I24" s="12" t="s">
         <v>15</v>
       </c>
@@ -8322,7 +8353,9 @@
       <c r="G25" s="12">
         <v>2</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="67">
+        <v>1</v>
+      </c>
       <c r="I25" s="12" t="s">
         <v>15</v>
       </c>
@@ -8347,9 +8380,7 @@
       <c r="G26" s="56">
         <v>9</v>
       </c>
-      <c r="H26" s="56">
-        <v>3</v>
-      </c>
+      <c r="H26" s="56"/>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -8465,8 +8496,8 @@
       <c r="G30" s="56">
         <v>6</v>
       </c>
-      <c r="H30" s="56">
-        <v>2</v>
+      <c r="H30" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
@@ -8487,7 +8518,7 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="37" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="G31" s="17">
         <v>3</v>
@@ -8520,7 +8551,7 @@
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G32" s="17">
         <v>3</v>
@@ -8552,8 +8583,8 @@
       <c r="G33" s="56">
         <v>9</v>
       </c>
-      <c r="H33" s="56">
-        <v>3</v>
+      <c r="H33" s="65">
+        <v>1</v>
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
@@ -8570,13 +8601,13 @@
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="37" t="s">
-        <v>354</v>
+        <v>21</v>
       </c>
       <c r="G34" s="17">
         <v>9</v>
       </c>
-      <c r="H34" s="17">
-        <v>3</v>
+      <c r="H34" s="66">
+        <v>1</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>24</v>
@@ -8597,13 +8628,13 @@
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="37" t="s">
-        <v>354</v>
+        <v>21</v>
       </c>
       <c r="G35" s="17">
         <v>9</v>
       </c>
-      <c r="H35" s="17">
-        <v>3</v>
+      <c r="H35" s="66">
+        <v>1</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>24</v>
@@ -8677,8 +8708,8 @@
       <c r="G38" s="56">
         <v>4</v>
       </c>
-      <c r="H38" s="56">
-        <v>2</v>
+      <c r="H38" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
@@ -8722,7 +8753,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C40" s="12">
         <v>24</v>
@@ -8742,7 +8773,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>53</v>
@@ -8762,8 +8793,8 @@
       <c r="G41" s="56">
         <v>2</v>
       </c>
-      <c r="H41" s="56">
-        <v>1</v>
+      <c r="H41" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
@@ -8814,8 +8845,8 @@
       <c r="G43" s="56">
         <v>6</v>
       </c>
-      <c r="H43" s="56">
-        <v>3</v>
+      <c r="H43" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
@@ -8836,7 +8867,7 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G44" s="17">
         <v>2</v>
@@ -8869,7 +8900,7 @@
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G45" s="17">
         <v>2</v>
@@ -8902,7 +8933,7 @@
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G46" s="17">
         <v>2</v>
@@ -8934,8 +8965,8 @@
       <c r="G47" s="56">
         <v>6</v>
       </c>
-      <c r="H47" s="56">
-        <v>3</v>
+      <c r="H47" s="65" t="s">
+        <v>373</v>
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="56"/>
@@ -8956,13 +8987,13 @@
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G48" s="17">
         <v>4</v>
       </c>
-      <c r="H48" s="17">
-        <v>2</v>
+      <c r="H48" s="66">
+        <v>1</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>15</v>
@@ -8989,7 +9020,7 @@
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G49" s="17">
         <v>2</v>
@@ -9021,8 +9052,8 @@
       <c r="G50" s="56">
         <v>6</v>
       </c>
-      <c r="H50" s="56">
-        <v>3</v>
+      <c r="H50" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="I50" s="56"/>
       <c r="J50" s="56"/>
@@ -9076,7 +9107,7 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G52" s="17">
         <v>2</v>
@@ -9109,7 +9140,7 @@
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G53" s="17">
         <v>2</v>
@@ -9141,8 +9172,8 @@
       <c r="G54" s="56">
         <v>6</v>
       </c>
-      <c r="H54" s="56">
-        <v>3</v>
+      <c r="H54" s="65" t="s">
+        <v>373</v>
       </c>
       <c r="I54" s="56"/>
       <c r="J54" s="56"/>
@@ -9163,13 +9194,13 @@
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G55" s="17">
         <v>4</v>
       </c>
-      <c r="H55" s="17">
-        <v>2</v>
+      <c r="H55" s="66">
+        <v>1</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>15</v>
@@ -9196,7 +9227,7 @@
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="37" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="G56" s="17">
         <v>2</v>
@@ -9334,7 +9365,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G62" s="17">
         <v>30</v>
@@ -9361,7 +9392,7 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G63" s="17">
         <v>30</v>

--- a/Maquettes/_SPE_Clean.xlsx
+++ b/Maquettes/_SPE_Clean.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="3"/>
@@ -7631,8 +7631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H35"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9272,9 +9272,7 @@
       <c r="C58" s="17">
         <v>9</v>
       </c>
-      <c r="D58" s="17">
-        <v>24</v>
-      </c>
+      <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="37"/>
       <c r="G58" s="17"/>
